--- a/biology/Botanique/Hylesinus_varius/Hylesinus_varius.xlsx
+++ b/biology/Botanique/Hylesinus_varius/Hylesinus_varius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylésine du frêne
 Hylesinus varius, l'Hylésine du frêne, est une espèce d'insectes de l'ordre des coléoptères de la famille des Curculionidae, de la sous-famille des Scolytinae.
@@ -512,19 +524,21 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hylesinus fraxini (Panzer, 1779)[1]
-Hylesinus haemorrhoidalis Marsham, 1802[1]
-Hylesinus henscheli Knotek, 1894[1]
-Hylesinus melanocephalus Fabricius, 1801[1]
-Hylesinus picipennis Stephens, 1836[1]
-Leperisinus fraxini (Panzer, 1799)[1]
-Leperisinus haemorrhoidalis Marsham, 1802[1]
-Leperisinus henscheli Knotek, 1894[1]
-Leperisinus melanocephalus Fabricius, 1801[1]
-Leperisinus varius (Fabricius, 1775)[1]
+Hylesinus fraxini (Panzer, 1779)
+Hylesinus haemorrhoidalis Marsham, 1802
+Hylesinus henscheli Knotek, 1894
+Hylesinus melanocephalus Fabricius, 1801
+Hylesinus picipennis Stephens, 1836
+Leperisinus fraxini (Panzer, 1799)
+Leperisinus haemorrhoidalis Marsham, 1802
+Leperisinus henscheli Knotek, 1894
+Leperisinus melanocephalus Fabricius, 1801
+Leperisinus varius (Fabricius, 1775)
 </t>
         </is>
       </c>
